--- a/Deliverables/math.xlsx
+++ b/Deliverables/math.xlsx
@@ -1,77 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgrum\Documents\Programming\Architecture\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00A4C10-1DF5-489A-AA5F-B51936DED648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83736C81-E235-4686-B000-D0AF0015A69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAF31B85-E1B9-49EF-BE80-460865DEDECA}"/>
+    <workbookView xWindow="11340" yWindow="1485" windowWidth="16755" windowHeight="13395" xr2:uid="{FAF31B85-E1B9-49EF-BE80-460865DEDECA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$3</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$4</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">(Sheet1!$C$5,Sheet1!$E$5:$I$5)</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">(Sheet1!$D$6,Sheet1!$F$6:$I$6)</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$3</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$4</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">(Sheet1!$C$5,Sheet1!$E$5:$I$5)</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">(Sheet1!$D$3,Sheet1!$F$3:$I$3)</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">(Sheet1!$D$4,Sheet1!$F$4:$I$4)</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">(Sheet1!$D$6,Sheet1!$F$6:$I$6)</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$3</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$B$4</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$B$5</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$B$5:$B$6</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$5</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$B$6</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$B$5</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$B$6</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$B$7</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$B$8</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$D$5:$H$5</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$D$6:$H$6</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$D$7:$H$7</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$D$8:$H$8</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$B$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$5:$B$6</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$B$4</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$B$7</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$B$8</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$D$3:$H$3</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$D$4:$H$4</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$D$7:$H$7</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$D$8:$H$8</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">(Sheet1!$D$3,Sheet1!$F$3:$I$3)</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">(Sheet1!$D$4,Sheet1!$F$4:$I$4)</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$B$3</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$D$3:$H$3</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$B$4</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">(Sheet1!$D$3,Sheet1!$F$3:$I$3)</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">(Sheet1!$D$4,Sheet1!$F$4:$I$4)</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$B$3</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$B$4</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">(Sheet1!$C$5,Sheet1!$E$5:$I$5)</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">(Sheet1!$C$7,Sheet1!$E$7:$I$7)</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">(Sheet1!$D$6,Sheet1!$F$6:$I$6)</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">(Sheet1!$D$7,Sheet1!$F$7:$I$7)</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">(Sheet1!$D$8,Sheet1!$F$8:$I$8)</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$4:$H$4</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">Sheet1!$B$5</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">Sheet1!$B$6</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">Sheet1!$B$7</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">Sheet1!$B$8</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">(Sheet1!$D$3,Sheet1!$F$3:$I$3)</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">(Sheet1!$D$4,Sheet1!$F$4:$I$4)</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">Sheet1!$B$3</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">Sheet1!$B$4</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$5:$H$5</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$D$6</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$6</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">(Sheet1!$D$7,Sheet1!$F$7:$I$7)</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">(Sheet1!$D$8,Sheet1!$F$8:$I$8)</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$7</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$8</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">(Sheet1!$D$3,Sheet1!$F$3:$I$3)</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">(Sheet1!$D$4,Sheet1!$F$4:$I$4)</definedName>
   </definedNames>
@@ -241,12 +195,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.41</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.42</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -289,7 +243,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{AC670DA4-428A-463F-871E-6C0A2EE3FBCD}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.43</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>Actor</cx:v>
             </cx:txData>
           </cx:tx>
@@ -302,7 +256,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{65D1EA5F-3382-49A6-B59D-86EC09BB19C9}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.44</cx:f>
+              <cx:f>_xlchart.v1.11</cx:f>
               <cx:v>LoadBalancer</cx:v>
             </cx:txData>
           </cx:tx>
@@ -455,12 +409,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.12</cx:f>
+        <cx:f dir="row">_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.15</cx:f>
+        <cx:f dir="row">_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -503,7 +457,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{AC670DA4-428A-463F-871E-6C0A2EE3FBCD}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Actor</cx:v>
             </cx:txData>
           </cx:tx>
@@ -516,7 +470,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{65D1EA5F-3382-49A6-B59D-86EC09BB19C9}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v>LoadBalancer</cx:v>
             </cx:txData>
           </cx:tx>
@@ -669,12 +623,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.48</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.49</cx:f>
+        <cx:f dir="row">_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -721,7 +675,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{AC670DA4-428A-463F-871E-6C0A2EE3FBCD}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.52</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Actor</cx:v>
             </cx:txData>
           </cx:tx>
@@ -734,7 +688,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{65D1EA5F-3382-49A6-B59D-86EC09BB19C9}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.53</cx:f>
+              <cx:f>_xlchart.v1.7</cx:f>
               <cx:v>LoadBalancer</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2596,8 +2550,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="582704" y="3184391"/>
-              <a:ext cx="4571201" cy="2743200"/>
+              <a:off x="582704" y="3165341"/>
+              <a:ext cx="4573922" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2674,8 +2628,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5463188" y="3235938"/>
-              <a:ext cx="4583206" cy="2743200"/>
+              <a:off x="5465909" y="3216888"/>
+              <a:ext cx="4579124" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2752,8 +2706,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10322059" y="3242661"/>
-              <a:ext cx="4629629" cy="2743200"/>
+              <a:off x="10320698" y="3223611"/>
+              <a:ext cx="4606497" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
